--- a/data/trans_camb/P25_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-0,37</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>-0,18</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,04</t>
+          <t>-1,0; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,28</t>
+          <t>-2,77; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,98</t>
+          <t>-0,96; 4,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,2</t>
+          <t>-2,95; 3,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,58</t>
+          <t>-3,41; 2,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,86</t>
+          <t>-2,38; 2,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,26</t>
+          <t>-1,31; 3,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,03</t>
+          <t>1,73; 7,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,27</t>
+          <t>-3,71; 2,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 4,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 2,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 5,31</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 1,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 2,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>76,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58,66%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>44,67%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 118,77</t>
+          <t>-20,05; 131,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 72,07</t>
+          <t>-46,28; 56,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 142,55</t>
+          <t>-20,17; 132,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 49,22</t>
+          <t>-38,37; 64,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 78,33</t>
+          <t>-40,7; 42,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 103,78</t>
+          <t>-34,46; 55,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 50,93</t>
+          <t>-18,88; 85,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 47,81</t>
+          <t>23,73; 177,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 97,1</t>
+          <t>-30,41; 33,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,34; 60,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,27; 66,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 55,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,28; 125,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,76; 25,55</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-20,89; 35,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,22</t>
+          <t>-7,91; -0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 4,0</t>
+          <t>-6,05; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,53</t>
+          <t>-5,59; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,82</t>
+          <t>-2,55; 5,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,13</t>
+          <t>-2,19; 6,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,3</t>
+          <t>-6,08; 0,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,71</t>
+          <t>-4,92; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,87</t>
+          <t>-2,13; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,56</t>
+          <t>-4,53; 6,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 7,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; -0,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 1,49</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 3,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 5,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 5,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-45,5%</t>
+          <t>-49,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>-23,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,68%</t>
+          <t>-24,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,3%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,84%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,01%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-40,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,51; -0,63</t>
+          <t>-74,4; -12,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 68,41</t>
+          <t>-59,08; 55,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 30,19</t>
+          <t>-56,76; 43,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 14,72</t>
+          <t>-34,73; 128,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 40,62</t>
+          <t>-31,02; 186,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 102,63</t>
+          <t>-57,97; 9,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,51; -10,75</t>
+          <t>-51,88; 49,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 28,33</t>
+          <t>-25,4; 116,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 36,59</t>
+          <t>-36,19; 89,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,05; 100,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,18; -14,4</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-48,09; 22,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-28,92; 49,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-22,19; 81,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-16,7; 93,37</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,45</t>
+          <t>-8,93; 4,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 7,2</t>
+          <t>-8,37; 5,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-10,28; 4,92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; 6,79</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-6,43; 6,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 9,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 7,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 4,34</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 5,69</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 4,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 6,4</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 4,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-16,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-28,58%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35,09%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,44%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-10,08%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,51; 129,07</t>
+          <t>-71,83; 100,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 194,25</t>
+          <t>-69,49; 124,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-79,9; 129,9</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; 168,85</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 233,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-52,74; 151,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-36,39; 211,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-55,79; 155,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 89,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-34,94; 105,85</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,92; 85,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 122,95</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 77,27</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,96</t>
+          <t>-3,17; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,15</t>
+          <t>-3,11; 1,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,57</t>
+          <t>-2,64; 1,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,01</t>
+          <t>-2,13; 2,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,42</t>
+          <t>-2,25; 2,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,19</t>
+          <t>-3,07; 0,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,53</t>
+          <t>-1,67; 2,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,48</t>
+          <t>0,63; 6,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,61</t>
+          <t>-2,44; 2,8</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 4,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 0,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 1,31</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 3,16</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 2,1</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 2,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-15,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-14,69%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 17,81</t>
+          <t>-41,28; 15,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 44,82</t>
+          <t>-40,75; 28,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 50,16</t>
+          <t>-34,77; 36,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 18,26</t>
+          <t>-29,56; 52,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 43,57</t>
+          <t>-30,39; 50,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 71,3</t>
+          <t>-37,58; 16,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 9,53</t>
+          <t>-20,74; 41,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 26,39</t>
+          <t>4,5; 101,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 46,26</t>
+          <t>-21,6; 33,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 59,01</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 9,71</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 23,06</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 53,21</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; 29,26</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 37,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
